--- a/example/Section_Result.xlsx
+++ b/example/Section_Result.xlsx
@@ -1,51 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Section_SAP" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Section_Midas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Section_SAP" sheetId="1" r:id="rId1"/>
+    <sheet name="Section_Midas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>S2L</t>
+  </si>
+  <si>
+    <t>S2R</t>
+  </si>
+  <si>
+    <t>S3T</t>
+  </si>
+  <si>
+    <t>S3B</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>TorsConst</t>
+  </si>
+  <si>
+    <t>As2</t>
+  </si>
+  <si>
+    <t>As3</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>I33</t>
+  </si>
+  <si>
+    <t>Z22</t>
+  </si>
+  <si>
+    <t>Z33</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test_r</t>
+  </si>
+  <si>
+    <t>Test2_r</t>
+  </si>
+  <si>
+    <t>Asy</t>
+  </si>
+  <si>
+    <t>Asz</t>
+  </si>
+  <si>
+    <t>Ixx</t>
+  </si>
+  <si>
+    <t>Iyy</t>
+  </si>
+  <si>
+    <t>Izz</t>
+  </si>
+  <si>
+    <t>yna_right</t>
+  </si>
+  <si>
+    <t>yna_left</t>
+  </si>
+  <si>
+    <t>zna_top</t>
+  </si>
+  <si>
+    <t>zna_bot</t>
+  </si>
+  <si>
+    <t>Zyy</t>
+  </si>
+  <si>
+    <t>Zzz</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,98 +165,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -447,342 +467,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>S2L</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>S2R</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>S3T</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>S3B</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>R22</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>R33</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>t3</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>t2</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>TorsConst</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>As2</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>As3</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>I22</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>I33</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Z22</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Z33</t>
-        </is>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
         <v>0.3054702235666609</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2">
         <v>0.3056978350550662</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2">
         <v>0.4187774452524079</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2">
         <v>0.2022896702793468</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2">
         <v>1.972073519578161</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2">
         <v>1.047224171805283</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2">
         <v>2.527</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2">
         <v>0.3143</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2">
         <v>0.2660024315108648</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2">
         <v>0.05</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2">
         <v>0.08694</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2">
         <v>1.222335947709105</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2">
         <v>0.344686041867968</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2">
         <v>0.5210590122480606</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2">
         <v>0.2047994855850269</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
         <v>0.2418328645428602</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3">
         <v>0.2868162858363189</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3">
         <v>0.4908978655091872</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3">
         <v>0.2700881939792519</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3">
         <v>1.343936820021749</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3">
         <v>1.132865257622228</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3">
         <v>2.836</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3">
         <v>5.300000000000001</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3">
         <v>0.385008</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3">
         <v>0.3781878524714249</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3">
         <v>0.112</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3">
         <v>0.09504</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3">
         <v>0.6953884271703253</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3">
         <v>0.4941129884616141</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3">
         <v>0.4547815434073377</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3">
         <v>0.274694701448945</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Test_r</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
         <v>0.3056500228045951</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4">
         <v>0.3054361606249547</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4">
         <v>0.4187774452524079</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4">
         <v>0.2022896702793468</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4">
         <v>1.971941436627433</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4">
         <v>1.047224171805283</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4">
         <v>2.527</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4">
         <v>0.3143</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4">
         <v>0.2660024315108648</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4">
         <v>0.05</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4">
         <v>0.08694</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4">
         <v>1.222172217168162</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4">
         <v>0.344686041867968</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4">
         <v>0.5210304795155549</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4">
         <v>0.2047994855850269</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Test2_r</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
         <v>0.2868162858363193</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5">
         <v>0.2418328645428602</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5">
         <v>0.4908978655091872</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5">
         <v>0.2700881939792519</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5">
         <v>1.343936820021749</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5">
         <v>1.132865257622228</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5">
         <v>2.836</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5">
         <v>5.3</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5">
         <v>0.385008</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5">
         <v>0.3781878524714249</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5">
         <v>0.112</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5">
         <v>0.09504</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5">
         <v>0.6953884271703258</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5">
         <v>0.4941129884616141</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5">
         <v>0.4547815434073377</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5">
         <v>0.2865167467965742</v>
       </c>
     </row>
@@ -792,270 +745,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="19" customWidth="1" min="13" max="13"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Asy</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Asz</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Ixx</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Iyy</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Izz</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>yna_right</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>yna_left</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>zna_top</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>zna_bot</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Zyy</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Zzz</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
         <v>314300</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2">
         <v>86940</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2">
         <v>50000</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2">
         <v>266002431510.8648</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2">
         <v>344686041867.968</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2">
         <v>1222335947709.105</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2">
         <v>3998.510318167356</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2">
         <v>4001.489681832644</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2">
         <v>823.0769010499523</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2">
         <v>1703.923098950048</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2">
         <v>204799485.5850269</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2">
         <v>521059012.2480606</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
         <v>385008</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3">
         <v>95040</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3">
         <v>112000</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3">
         <v>378187852471.4249</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3">
         <v>494112988461.6141</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3">
         <v>695388427170.3253</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3">
         <v>2424.508166064083</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3">
         <v>2875.491833935917</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3">
         <v>1006.549474296638</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3">
         <v>1829.450525703362</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3">
         <v>274694701.448945</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3">
         <v>454781543.4073377</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Test_r</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
         <v>314300</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4">
         <v>86940</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4">
         <v>50000</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4">
         <v>266002431510.8648</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4">
         <v>344686041867.968</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4">
         <v>1222172217168.162</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4">
         <v>4001.399882278078</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4">
         <v>3998.600117721922</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4">
         <v>823.0769010499523</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4">
         <v>1703.923098950048</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4">
         <v>204799485.5850269</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4">
         <v>521030479.5155549</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Test2_r</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
         <v>385008</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5">
         <v>95040</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5">
         <v>112000</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5">
         <v>378187852471.4249</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5">
         <v>494112988461.6141</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5">
         <v>695388427170.3258</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5">
         <v>2875.491833935919</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5">
         <v>2424.508166064081</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5">
         <v>1006.549474296638</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5">
         <v>1829.450525703362</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5">
         <v>286516746.7965742</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5">
         <v>454781543.4073377</v>
       </c>
     </row>
